--- a/template/GHT-2BReportTemplate.xlsx
+++ b/template/GHT-2BReportTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GHT60_Report\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FAE85B-C8C5-4492-856A-D1B9A43D82CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96BAC81-B1D9-4950-8A73-46B0BDB45CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,11 +183,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +195,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,341 +486,342 @@
   <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="6.75" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
-    <col min="19" max="19" width="13.375" customWidth="1"/>
-    <col min="32" max="32" width="10.75" customWidth="1"/>
-    <col min="45" max="45" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="46" width="20.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="2" t="s">
+      <c r="S3" s="5"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
+      <c r="V3" s="5"/>
+      <c r="W3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2" t="s">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2" t="s">
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2" t="s">
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2" t="s">
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="2" t="s">
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2" t="s">
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2" t="s">
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2" t="s">
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2" t="s">
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2" t="s">
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="1"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="6"/>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="1" t="s">
+      <c r="T4" s="6"/>
+      <c r="U4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AF4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AS4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AT4" s="1"/>
+      <c r="AT4" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="29">
